--- a/server/static/temp/hqv/Products_HU.xlsx
+++ b/server/static/temp/hqv/Products_HU.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Тяжёлая Техника HCP" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>Код изделия</t>
   </si>
@@ -218,13 +218,19 @@
   </si>
   <si>
     <t>Категория</t>
+  </si>
+  <si>
+    <t>https://leidtogi.ru/sbor-pyli-i-shlama</t>
+  </si>
+  <si>
+    <t>https://leidtogi.ru/shlifovanie-betona</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -338,6 +344,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -430,7 +443,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0"/>
@@ -443,8 +456,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -500,11 +514,13 @@
     <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal 2 3 2" xfId="1"/>
     <cellStyle name="Normal 25" xfId="2"/>
     <cellStyle name="Normal_LATEST 680 &amp; 820 COST BREAKDOWN - 2006.06.18" xfId="3"/>
+    <cellStyle name="Гиперссылка" xfId="8" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="4"/>
     <cellStyle name="Обычный 3 2" xfId="5"/>
@@ -513,6 +529,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -916,11 +937,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -930,7 +951,7 @@
     <col min="3" max="3" width="15.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="12" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="6" max="6" width="37.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1128,7 +1149,7 @@
         <v>1810317.5999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="14" t="s">
         <v>15</v>
@@ -1144,7 +1165,7 @@
         <v>948290.39999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="14" t="s">
         <v>17</v>
@@ -1160,7 +1181,7 @@
         <v>2241901.1999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="14" t="s">
         <v>44</v>
@@ -1176,7 +1197,7 @@
         <v>584907.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="20" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="14" t="s">
         <v>42</v>
@@ -1192,7 +1213,7 @@
         <v>547354.79999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.25" customHeight="1">
+    <row r="21" spans="1:6" ht="20.25" customHeight="1">
       <c r="B21" s="14" t="s">
         <v>19</v>
       </c>
@@ -1207,7 +1228,7 @@
         <v>962840.39999999991</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.25" customHeight="1">
+    <row r="22" spans="1:6" ht="20.25" customHeight="1">
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
@@ -1222,7 +1243,7 @@
         <v>1244880</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.25" customHeight="1">
+    <row r="23" spans="1:6" ht="20.25" customHeight="1">
       <c r="B23" s="14" t="s">
         <v>33</v>
       </c>
@@ -1237,7 +1258,7 @@
         <v>410647.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.25" customHeight="1">
+    <row r="24" spans="1:6" ht="20.25" customHeight="1">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1252,7 +1273,7 @@
         <v>3602402.4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="25" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -1268,7 +1289,7 @@
         <v>4395903.5999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="26" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="14" t="s">
         <v>46</v>
@@ -1284,7 +1305,7 @@
         <v>4645066.8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="27" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="14" t="s">
         <v>47</v>
@@ -1300,7 +1321,7 @@
         <v>6011259.5999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
+    <row r="28" spans="1:6" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="21" t="s">
         <v>51</v>
@@ -1315,8 +1336,11 @@
         <f t="shared" si="1"/>
         <v>2370000</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="F28" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="21" t="s">
         <v>48</v>
@@ -1331,8 +1355,11 @@
         <f t="shared" si="1"/>
         <v>2616000</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="F29" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="21" t="s">
         <v>64</v>
@@ -1347,8 +1374,11 @@
         <f t="shared" si="1"/>
         <v>2400000</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="F30" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="21" t="s">
         <v>65</v>
@@ -1363,8 +1393,11 @@
         <f t="shared" si="1"/>
         <v>3300000</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" customHeight="1">
+      <c r="F31" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.25" customHeight="1">
       <c r="B32" s="25" t="s">
         <v>60</v>
       </c>
@@ -1378,8 +1411,11 @@
         <f t="shared" si="1"/>
         <v>220086</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="17.25" customHeight="1">
+      <c r="F32" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="17.25" customHeight="1">
       <c r="B33" s="25" t="s">
         <v>52</v>
       </c>
@@ -1393,8 +1429,11 @@
         <f t="shared" si="1"/>
         <v>972000</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="17.25" customHeight="1">
+      <c r="F33" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="17.25" customHeight="1">
       <c r="B34" s="25" t="s">
         <v>59</v>
       </c>
@@ -1408,8 +1447,11 @@
         <f t="shared" si="1"/>
         <v>1158000</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" ht="17.25" customHeight="1">
+      <c r="F34" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="17.25" customHeight="1">
       <c r="B35" s="25" t="s">
         <v>54</v>
       </c>
@@ -1423,8 +1465,11 @@
         <f t="shared" si="1"/>
         <v>1414094.4</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" ht="15">
+      <c r="F35" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15">
       <c r="B36" s="14" t="s">
         <v>25</v>
       </c>
@@ -1439,7 +1484,7 @@
         <v>1578067.2</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="15">
+    <row r="37" spans="2:6" ht="15">
       <c r="B37" s="14" t="s">
         <v>26</v>
       </c>
@@ -1454,7 +1499,7 @@
         <v>1699080</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="15">
+    <row r="38" spans="2:6" ht="15">
       <c r="B38" s="14" t="s">
         <v>36</v>
       </c>
@@ -1469,7 +1514,7 @@
         <v>1440000</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="15">
+    <row r="39" spans="2:6" ht="15">
       <c r="B39" s="14" t="s">
         <v>37</v>
       </c>
@@ -1484,7 +1529,7 @@
         <v>2182624.7999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="15">
+    <row r="40" spans="2:6" ht="15">
       <c r="B40" s="21" t="s">
         <v>63</v>
       </c>
@@ -1498,15 +1543,27 @@
         <f t="shared" si="1"/>
         <v>2852400</v>
       </c>
+      <c r="F40" s="27" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F34" r:id="rId1"/>
+    <hyperlink ref="F35" r:id="rId2"/>
+    <hyperlink ref="F33" r:id="rId3"/>
+    <hyperlink ref="F32" r:id="rId4"/>
+    <hyperlink ref="F28" r:id="rId5"/>
+    <hyperlink ref="F29:F31" r:id="rId6" display="https://leidtogi.ru/shlifovanie-betona"/>
+    <hyperlink ref="F40" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.74803149606299213" right="0.27559055118110237" top="0.31496062992125984" bottom="0.47244094488188981" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId8"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"a_AlbionicTitulInfl,обычный"Husqvarna Construction Products
 2022</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>